--- a/RMPP/RMPP_Unit07_Exa7.4F.xlsx
+++ b/RMPP/RMPP_Unit07_Exa7.4F.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_07B6692F677DB44BF91946E624DC5306CFD76DA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86030C6F-211D-458C-952F-8AABAC18B293}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870"/>
+    <workbookView xWindow="25650" yWindow="1065" windowWidth="26835" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Store</t>
   </si>
@@ -25,13 +44,59 @@
   </si>
   <si>
     <t>Con2</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Difference in Means</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>These results come from comparing sales figures in 10 stores under two container designs, Con1 and Con2. Each store tested both designs, so the data are paired observations.
+The average sales under Con1 is 172.6, while the average under Con2 is 159.4, giving a difference of about 13.2 items sold per store. The two-tailed p-value of 0.018 is below the conventional 0.05 cutoff, suggesting this difference is statistically significant. In practical terms, these findings indicate that Con1 is likely to achieve higher sales than Con2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -40,6 +105,27 @@
       <b/>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -51,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -59,11 +145,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -71,19 +178,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>313637</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>751975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1533270C-7A3B-1432-8A7D-99A471A11DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7096125" y="9525"/>
+          <a:ext cx="5504762" cy="4000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -121,7 +318,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -155,6 +352,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -189,9 +387,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -364,14 +563,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,8 +589,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -393,7 +604,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -403,8 +614,15 @@
       <c r="C3" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -414,8 +632,17 @@
       <c r="C4" s="2">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>172.6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>159.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -425,8 +652,17 @@
       <c r="C5" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>750.26666666666927</v>
+      </c>
+      <c r="G5" s="3">
+        <v>789.37777777777717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -436,8 +672,17 @@
       <c r="C6" s="2">
         <v>175</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -447,8 +692,15 @@
       <c r="C7" s="2">
         <v>197</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.86333500407645425</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -458,8 +710,15 @@
       <c r="C8" s="2">
         <v>143</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -469,8 +728,15 @@
       <c r="C9" s="2">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -480,8 +746,15 @@
       <c r="C10" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.8747021254882523</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -491,21 +764,88 @@
       <c r="C11" s="2">
         <v>197</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9.1678173875810887E-3</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.8335634775162177E-2</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f>F4-G4</f>
+        <v>13.199999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:G21"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -514,12 +854,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
